--- a/InsuranceAgency/Content/Reports/ReportAllResult.xlsx
+++ b/InsuranceAgency/Content/Reports/ReportAllResult.xlsx
@@ -466,13 +466,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -530,13 +530,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>13</v>
+        <v>5000</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="11">
@@ -544,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -558,13 +558,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>18</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>252000</v>
       </c>
     </row>
     <row r="15">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>17</v>
+        <v>34500</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>402000</v>
       </c>
     </row>
     <row r="18">
@@ -611,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>19000</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="19">
@@ -622,13 +622,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>22</v>
+        <v>53500</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>437000</v>
       </c>
     </row>
   </sheetData>
